--- a/inst/results/BMF_computation_PCB_ng_glw/2.contam_all_PCB_ng_glw_taxon_stats.xlsx
+++ b/inst/results/BMF_computation_PCB_ng_glw/2.contam_all_PCB_ng_glw_taxon_stats.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -839,22 +839,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CB28</t>
+          <t>CB187</t>
         </is>
       </c>
       <c r="D19">
-        <v>21.94</v>
+        <v>425.13</v>
       </c>
       <c r="E19">
-        <v>39.11</v>
+        <v>807.77</v>
       </c>
       <c r="F19">
-        <v>58.22</v>
+        <v>1113.15</v>
       </c>
     </row>
     <row r="20">
@@ -865,22 +865,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CB31</t>
+          <t>CB194</t>
         </is>
       </c>
       <c r="D20">
-        <v>12.4</v>
+        <v>83.12</v>
       </c>
       <c r="E20">
-        <v>18.67</v>
+        <v>122.24</v>
       </c>
       <c r="F20">
-        <v>35.95</v>
+        <v>162.06</v>
       </c>
     </row>
     <row r="21">
@@ -896,17 +896,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CB44</t>
+          <t>CB28</t>
         </is>
       </c>
       <c r="D21">
-        <v>38.02</v>
+        <v>21.94</v>
       </c>
       <c r="E21">
-        <v>50.67</v>
+        <v>39.11</v>
       </c>
       <c r="F21">
-        <v>85.84</v>
+        <v>58.22</v>
       </c>
     </row>
     <row r="22">
@@ -922,17 +922,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CB49</t>
+          <t>CB31</t>
         </is>
       </c>
       <c r="D22">
-        <v>41.14</v>
+        <v>12.4</v>
       </c>
       <c r="E22">
-        <v>89.25</v>
+        <v>18.67</v>
       </c>
       <c r="F22">
-        <v>91.34</v>
+        <v>35.95</v>
       </c>
     </row>
     <row r="23">
@@ -948,17 +948,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CB52</t>
+          <t>CB44</t>
         </is>
       </c>
       <c r="D23">
-        <v>134.89</v>
+        <v>38.02</v>
       </c>
       <c r="E23">
-        <v>140.89</v>
+        <v>50.67</v>
       </c>
       <c r="F23">
-        <v>245.68</v>
+        <v>85.84</v>
       </c>
     </row>
     <row r="24">
@@ -974,17 +974,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CB101</t>
+          <t>CB49</t>
         </is>
       </c>
       <c r="D24">
-        <v>62.08</v>
+        <v>41.14</v>
       </c>
       <c r="E24">
-        <v>66.36</v>
+        <v>89.25</v>
       </c>
       <c r="F24">
-        <v>100.48</v>
+        <v>91.34</v>
       </c>
     </row>
     <row r="25">
@@ -1000,17 +1000,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CB105</t>
+          <t>CB52</t>
         </is>
       </c>
       <c r="D25">
-        <v>21.37</v>
+        <v>134.89</v>
       </c>
       <c r="E25">
-        <v>26.63</v>
+        <v>140.89</v>
       </c>
       <c r="F25">
-        <v>84.2</v>
+        <v>245.68</v>
       </c>
     </row>
     <row r="26">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CB110</t>
+          <t>CB101</t>
         </is>
       </c>
       <c r="D26">
-        <v>48.9</v>
+        <v>62.08</v>
       </c>
       <c r="E26">
-        <v>54.65</v>
+        <v>66.36</v>
       </c>
       <c r="F26">
-        <v>76.56</v>
+        <v>100.48</v>
       </c>
     </row>
     <row r="27">
@@ -1052,17 +1052,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CB118</t>
+          <t>CB105</t>
         </is>
       </c>
       <c r="D27">
-        <v>201.35</v>
+        <v>21.37</v>
       </c>
       <c r="E27">
-        <v>371.9</v>
+        <v>26.63</v>
       </c>
       <c r="F27">
-        <v>397.09</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="28">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CB128</t>
+          <t>CB110</t>
         </is>
       </c>
       <c r="D28">
-        <v>10.9</v>
+        <v>48.9</v>
       </c>
       <c r="E28">
-        <v>12.5</v>
+        <v>54.65</v>
       </c>
       <c r="F28">
-        <v>22.58</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="29">
@@ -1104,17 +1104,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CB132</t>
+          <t>CB118</t>
         </is>
       </c>
       <c r="D29">
-        <v>15.37</v>
+        <v>201.35</v>
       </c>
       <c r="E29">
-        <v>18.37</v>
+        <v>371.9</v>
       </c>
       <c r="F29">
-        <v>25.63</v>
+        <v>397.09</v>
       </c>
     </row>
     <row r="30">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CB138</t>
+          <t>CB128</t>
         </is>
       </c>
       <c r="D30">
-        <v>173.53</v>
+        <v>10.9</v>
       </c>
       <c r="E30">
-        <v>387.34</v>
+        <v>12.5</v>
       </c>
       <c r="F30">
-        <v>495.54</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="31">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CB149</t>
+          <t>CB132</t>
         </is>
       </c>
       <c r="D31">
-        <v>71.87</v>
+        <v>15.37</v>
       </c>
       <c r="E31">
-        <v>90.45</v>
+        <v>18.37</v>
       </c>
       <c r="F31">
-        <v>113.08</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="32">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CB153</t>
+          <t>CB138</t>
         </is>
       </c>
       <c r="D32">
-        <v>347.47</v>
+        <v>173.53</v>
       </c>
       <c r="E32">
-        <v>422.88</v>
+        <v>387.34</v>
       </c>
       <c r="F32">
-        <v>517.02</v>
+        <v>495.54</v>
       </c>
     </row>
     <row r="33">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CB156</t>
+          <t>CB149</t>
         </is>
       </c>
       <c r="D33">
-        <v>73.02</v>
+        <v>71.87</v>
       </c>
       <c r="E33">
-        <v>84</v>
+        <v>90.45</v>
       </c>
       <c r="F33">
-        <v>113.44</v>
+        <v>113.08</v>
       </c>
     </row>
     <row r="34">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CB170</t>
+          <t>CB153</t>
         </is>
       </c>
       <c r="D34">
-        <v>99.47</v>
+        <v>347.47</v>
       </c>
       <c r="E34">
-        <v>124.38</v>
+        <v>422.88</v>
       </c>
       <c r="F34">
-        <v>240.12</v>
+        <v>517.02</v>
       </c>
     </row>
     <row r="35">
@@ -1260,17 +1260,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CB180</t>
+          <t>CB156</t>
         </is>
       </c>
       <c r="D35">
-        <v>120.74</v>
+        <v>73.02</v>
       </c>
       <c r="E35">
-        <v>159.56</v>
+        <v>84</v>
       </c>
       <c r="F35">
-        <v>617.8099999999999</v>
+        <v>113.44</v>
       </c>
     </row>
     <row r="36">
@@ -1281,22 +1281,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CB28</t>
+          <t>CB170</t>
         </is>
       </c>
       <c r="D36">
-        <v>51.46</v>
+        <v>99.47</v>
       </c>
       <c r="E36">
-        <v>67.89</v>
+        <v>124.38</v>
       </c>
       <c r="F36">
-        <v>89.65000000000001</v>
+        <v>240.12</v>
       </c>
     </row>
     <row r="37">
@@ -1307,22 +1307,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CB31</t>
+          <t>CB180</t>
         </is>
       </c>
       <c r="D37">
-        <v>27.57</v>
+        <v>120.74</v>
       </c>
       <c r="E37">
-        <v>37.04</v>
+        <v>159.56</v>
       </c>
       <c r="F37">
-        <v>43</v>
+        <v>617.8099999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1333,22 +1333,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CB44</t>
+          <t>CB187</t>
         </is>
       </c>
       <c r="D38">
-        <v>130.74</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E38">
-        <v>154.84</v>
+        <v>151.06</v>
       </c>
       <c r="F38">
-        <v>193.78</v>
+        <v>688.5700000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1359,22 +1359,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Crustacea</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CB49</t>
+          <t>CB194</t>
         </is>
       </c>
       <c r="D39">
-        <v>183.58</v>
+        <v>29.49</v>
       </c>
       <c r="E39">
-        <v>229.12</v>
+        <v>49.65</v>
       </c>
       <c r="F39">
-        <v>285.12</v>
+        <v>82.78</v>
       </c>
     </row>
     <row r="40">
@@ -1390,17 +1390,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CB52</t>
+          <t>CB28</t>
         </is>
       </c>
       <c r="D40">
-        <v>277.83</v>
+        <v>51.46</v>
       </c>
       <c r="E40">
-        <v>335.19</v>
+        <v>67.89</v>
       </c>
       <c r="F40">
-        <v>435.68</v>
+        <v>89.65000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CB101</t>
+          <t>CB31</t>
         </is>
       </c>
       <c r="D41">
-        <v>747.1799999999999</v>
+        <v>27.57</v>
       </c>
       <c r="E41">
-        <v>849.26</v>
+        <v>37.04</v>
       </c>
       <c r="F41">
-        <v>1006.43</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CB105</t>
+          <t>CB44</t>
         </is>
       </c>
       <c r="D42">
-        <v>111.27</v>
+        <v>130.74</v>
       </c>
       <c r="E42">
-        <v>132.95</v>
+        <v>154.84</v>
       </c>
       <c r="F42">
-        <v>204.3</v>
+        <v>193.78</v>
       </c>
     </row>
     <row r="43">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CB110</t>
+          <t>CB49</t>
         </is>
       </c>
       <c r="D43">
-        <v>550.5599999999999</v>
+        <v>183.58</v>
       </c>
       <c r="E43">
-        <v>837.8200000000001</v>
+        <v>229.12</v>
       </c>
       <c r="F43">
-        <v>964.75</v>
+        <v>285.12</v>
       </c>
     </row>
     <row r="44">
@@ -1494,17 +1494,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CB118</t>
+          <t>CB52</t>
         </is>
       </c>
       <c r="D44">
-        <v>563.98</v>
+        <v>277.83</v>
       </c>
       <c r="E44">
-        <v>633.65</v>
+        <v>335.19</v>
       </c>
       <c r="F44">
-        <v>899.46</v>
+        <v>435.68</v>
       </c>
     </row>
     <row r="45">
@@ -1520,17 +1520,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CB128</t>
+          <t>CB101</t>
         </is>
       </c>
       <c r="D45">
-        <v>193.32</v>
+        <v>747.1799999999999</v>
       </c>
       <c r="E45">
-        <v>225.02</v>
+        <v>849.26</v>
       </c>
       <c r="F45">
-        <v>272.47</v>
+        <v>1006.43</v>
       </c>
     </row>
     <row r="46">
@@ -1546,17 +1546,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CB132</t>
+          <t>CB105</t>
         </is>
       </c>
       <c r="D46">
-        <v>190.34</v>
+        <v>111.27</v>
       </c>
       <c r="E46">
-        <v>287.26</v>
+        <v>132.95</v>
       </c>
       <c r="F46">
-        <v>326.16</v>
+        <v>204.3</v>
       </c>
     </row>
     <row r="47">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CB138</t>
+          <t>CB110</t>
         </is>
       </c>
       <c r="D47">
-        <v>1024.34</v>
+        <v>550.5599999999999</v>
       </c>
       <c r="E47">
-        <v>1251.52</v>
+        <v>837.8200000000001</v>
       </c>
       <c r="F47">
-        <v>1529.03</v>
+        <v>964.75</v>
       </c>
     </row>
     <row r="48">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CB149</t>
+          <t>CB118</t>
         </is>
       </c>
       <c r="D48">
-        <v>796.24</v>
+        <v>563.98</v>
       </c>
       <c r="E48">
-        <v>1005.21</v>
+        <v>633.65</v>
       </c>
       <c r="F48">
-        <v>1326.88</v>
+        <v>899.46</v>
       </c>
     </row>
     <row r="49">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CB153</t>
+          <t>CB128</t>
         </is>
       </c>
       <c r="D49">
-        <v>1784.42</v>
+        <v>193.32</v>
       </c>
       <c r="E49">
-        <v>2007.96</v>
+        <v>225.02</v>
       </c>
       <c r="F49">
-        <v>2743.61</v>
+        <v>272.47</v>
       </c>
     </row>
     <row r="50">
@@ -1650,17 +1650,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CB156</t>
+          <t>CB132</t>
         </is>
       </c>
       <c r="D50">
-        <v>57.1</v>
+        <v>190.34</v>
       </c>
       <c r="E50">
-        <v>67.03</v>
+        <v>287.26</v>
       </c>
       <c r="F50">
-        <v>104.78</v>
+        <v>326.16</v>
       </c>
     </row>
     <row r="51">
@@ -1676,17 +1676,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CB170</t>
+          <t>CB138</t>
         </is>
       </c>
       <c r="D51">
-        <v>222.53</v>
+        <v>1024.34</v>
       </c>
       <c r="E51">
-        <v>286.09</v>
+        <v>1251.52</v>
       </c>
       <c r="F51">
-        <v>356.74</v>
+        <v>1529.03</v>
       </c>
     </row>
     <row r="52">
@@ -1702,173 +1702,173 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CB180</t>
+          <t>CB149</t>
         </is>
       </c>
       <c r="D52">
-        <v>483.31</v>
+        <v>796.24</v>
       </c>
       <c r="E52">
-        <v>610.1</v>
+        <v>1005.21</v>
       </c>
       <c r="F52">
-        <v>726.83</v>
+        <v>1326.88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sole</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CB28</t>
+          <t>CB153</t>
         </is>
       </c>
       <c r="D53">
-        <v>29.08</v>
+        <v>1784.42</v>
       </c>
       <c r="E53">
-        <v>39.44</v>
+        <v>2007.96</v>
       </c>
       <c r="F53">
-        <v>57.27</v>
+        <v>2743.61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sole</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CB31</t>
+          <t>CB156</t>
         </is>
       </c>
       <c r="D54">
-        <v>4.47</v>
+        <v>57.1</v>
       </c>
       <c r="E54">
-        <v>8.68</v>
+        <v>67.03</v>
       </c>
       <c r="F54">
-        <v>18.47</v>
+        <v>104.78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sole</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CB44</t>
+          <t>CB170</t>
         </is>
       </c>
       <c r="D55">
-        <v>100.46</v>
+        <v>222.53</v>
       </c>
       <c r="E55">
-        <v>138.7</v>
+        <v>286.09</v>
       </c>
       <c r="F55">
-        <v>201.85</v>
+        <v>356.74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sole</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CB49</t>
+          <t>CB180</t>
         </is>
       </c>
       <c r="D56">
-        <v>148.17</v>
+        <v>483.31</v>
       </c>
       <c r="E56">
-        <v>232.11</v>
+        <v>610.1</v>
       </c>
       <c r="F56">
-        <v>283.35</v>
+        <v>726.83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sole</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CB52</t>
+          <t>CB187</t>
         </is>
       </c>
       <c r="D57">
-        <v>276.48</v>
+        <v>426.66</v>
       </c>
       <c r="E57">
-        <v>427.9</v>
+        <v>511.32</v>
       </c>
       <c r="F57">
-        <v>547.14</v>
+        <v>650.88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sole</t>
+          <t>Prey</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Polychaeta</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CB101</t>
+          <t>CB194</t>
         </is>
       </c>
       <c r="D58">
-        <v>772.6</v>
+        <v>77.39</v>
       </c>
       <c r="E58">
-        <v>968.99</v>
+        <v>119.95</v>
       </c>
       <c r="F58">
-        <v>1190.78</v>
+        <v>145.84</v>
       </c>
     </row>
     <row r="59">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CB105</t>
+          <t>CB28</t>
         </is>
       </c>
       <c r="D59">
-        <v>124.15</v>
+        <v>29.08</v>
       </c>
       <c r="E59">
-        <v>167.32</v>
+        <v>39.44</v>
       </c>
       <c r="F59">
-        <v>208.69</v>
+        <v>57.27</v>
       </c>
     </row>
     <row r="60">
@@ -1910,17 +1910,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CB110</t>
+          <t>CB31</t>
         </is>
       </c>
       <c r="D60">
-        <v>677.55</v>
+        <v>4.47</v>
       </c>
       <c r="E60">
-        <v>825.8099999999999</v>
+        <v>8.68</v>
       </c>
       <c r="F60">
-        <v>1005.34</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="61">
@@ -1936,17 +1936,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CB118</t>
+          <t>CB44</t>
         </is>
       </c>
       <c r="D61">
-        <v>730.41</v>
+        <v>100.46</v>
       </c>
       <c r="E61">
-        <v>958.64</v>
+        <v>138.7</v>
       </c>
       <c r="F61">
-        <v>1117.26</v>
+        <v>201.85</v>
       </c>
     </row>
     <row r="62">
@@ -1962,17 +1962,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CB128</t>
+          <t>CB49</t>
         </is>
       </c>
       <c r="D62">
-        <v>202.86</v>
+        <v>148.17</v>
       </c>
       <c r="E62">
-        <v>255.76</v>
+        <v>232.11</v>
       </c>
       <c r="F62">
-        <v>287.61</v>
+        <v>283.35</v>
       </c>
     </row>
     <row r="63">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CB132</t>
+          <t>CB52</t>
         </is>
       </c>
       <c r="D63">
-        <v>164.32</v>
+        <v>276.48</v>
       </c>
       <c r="E63">
-        <v>200.75</v>
+        <v>427.9</v>
       </c>
       <c r="F63">
-        <v>233.8</v>
+        <v>547.14</v>
       </c>
     </row>
     <row r="64">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CB138</t>
+          <t>CB101</t>
         </is>
       </c>
       <c r="D64">
-        <v>1158.09</v>
+        <v>772.6</v>
       </c>
       <c r="E64">
-        <v>1473.97</v>
+        <v>968.99</v>
       </c>
       <c r="F64">
-        <v>1796.05</v>
+        <v>1190.78</v>
       </c>
     </row>
     <row r="65">
@@ -2040,17 +2040,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CB149</t>
+          <t>CB105</t>
         </is>
       </c>
       <c r="D65">
-        <v>741.5</v>
+        <v>124.15</v>
       </c>
       <c r="E65">
-        <v>853.86</v>
+        <v>167.32</v>
       </c>
       <c r="F65">
-        <v>947.85</v>
+        <v>208.69</v>
       </c>
     </row>
     <row r="66">
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CB153</t>
+          <t>CB110</t>
         </is>
       </c>
       <c r="D66">
-        <v>2134.13</v>
+        <v>677.55</v>
       </c>
       <c r="E66">
-        <v>2667.06</v>
+        <v>825.8099999999999</v>
       </c>
       <c r="F66">
-        <v>2926.74</v>
+        <v>1005.34</v>
       </c>
     </row>
     <row r="67">
@@ -2092,17 +2092,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CB156</t>
+          <t>CB118</t>
         </is>
       </c>
       <c r="D67">
-        <v>67.06</v>
+        <v>730.41</v>
       </c>
       <c r="E67">
-        <v>86.23</v>
+        <v>958.64</v>
       </c>
       <c r="F67">
-        <v>90.56</v>
+        <v>1117.26</v>
       </c>
     </row>
     <row r="68">
@@ -2118,17 +2118,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CB170</t>
+          <t>CB128</t>
         </is>
       </c>
       <c r="D68">
-        <v>232.89</v>
+        <v>202.86</v>
       </c>
       <c r="E68">
-        <v>281.08</v>
+        <v>255.76</v>
       </c>
       <c r="F68">
-        <v>348.8</v>
+        <v>287.61</v>
       </c>
     </row>
     <row r="69">
@@ -2144,95 +2144,95 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CB180</t>
+          <t>CB132</t>
         </is>
       </c>
       <c r="D69">
-        <v>499.99</v>
+        <v>164.32</v>
       </c>
       <c r="E69">
-        <v>681.9</v>
+        <v>200.75</v>
       </c>
       <c r="F69">
-        <v>783.8</v>
+        <v>233.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>sumPCB</t>
+          <t>CB138</t>
         </is>
       </c>
       <c r="D70">
-        <v>9307.91</v>
+        <v>1158.09</v>
       </c>
       <c r="E70">
-        <v>11556.29</v>
+        <v>1473.97</v>
       </c>
       <c r="F70">
-        <v>15129.04</v>
+        <v>1796.05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Crustacea</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sumPCB</t>
+          <t>CB149</t>
         </is>
       </c>
       <c r="D71">
-        <v>2148.1</v>
+        <v>741.5</v>
       </c>
       <c r="E71">
-        <v>2583.92</v>
+        <v>853.86</v>
       </c>
       <c r="F71">
-        <v>3438.02</v>
+        <v>947.85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Prey</t>
+          <t>Sole</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Polychaeta</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sumPCB</t>
+          <t>CB153</t>
         </is>
       </c>
       <c r="D72">
-        <v>8011.82</v>
+        <v>2134.13</v>
       </c>
       <c r="E72">
-        <v>10624.91</v>
+        <v>2667.06</v>
       </c>
       <c r="F72">
-        <v>11784.82</v>
+        <v>2926.74</v>
       </c>
     </row>
     <row r="73">
@@ -2248,16 +2248,224 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>CB156</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>67.06</v>
+      </c>
+      <c r="E73">
+        <v>86.23</v>
+      </c>
+      <c r="F73">
+        <v>90.56</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sole</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Actinopterygii</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CB170</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>232.89</v>
+      </c>
+      <c r="E74">
+        <v>281.08</v>
+      </c>
+      <c r="F74">
+        <v>348.8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sole</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Actinopterygii</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CB180</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>499.99</v>
+      </c>
+      <c r="E75">
+        <v>681.9</v>
+      </c>
+      <c r="F75">
+        <v>783.8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sole</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Actinopterygii</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CB187</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>507.98</v>
+      </c>
+      <c r="E76">
+        <v>599.96</v>
+      </c>
+      <c r="F76">
+        <v>656.14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sole</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Actinopterygii</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CB194</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>79.56999999999999</v>
+      </c>
+      <c r="E77">
+        <v>90.93000000000001</v>
+      </c>
+      <c r="F77">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Prey</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Bivalvia</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>sumPCB</t>
         </is>
       </c>
-      <c r="D73">
+      <c r="D78">
+        <v>9307.91</v>
+      </c>
+      <c r="E78">
+        <v>11556.29</v>
+      </c>
+      <c r="F78">
+        <v>15129.04</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Prey</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Crustacea</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>sumPCB</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>2148.1</v>
+      </c>
+      <c r="E79">
+        <v>2583.92</v>
+      </c>
+      <c r="F79">
+        <v>3438.02</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Prey</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Polychaeta</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>sumPCB</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>8011.82</v>
+      </c>
+      <c r="E80">
+        <v>10624.91</v>
+      </c>
+      <c r="F80">
+        <v>11784.82</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sole</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Actinopterygii</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>sumPCB</t>
+        </is>
+      </c>
+      <c r="D81">
         <v>8654.84</v>
       </c>
-      <c r="E73">
+      <c r="E81">
         <v>11494.79</v>
       </c>
-      <c r="F73">
+      <c r="F81">
         <v>12596.26</v>
       </c>
     </row>
